--- a/templates/Excel/ST1/ST1_Maintainance.xlsx
+++ b/templates/Excel/ST1/ST1_Maintainance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,39 +696,121 @@
           <t>SHIFT1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-05T11:48</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-01-31T15:08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SHIFT1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
